--- a/omni/TABLE_COLUMNS.xlsx
+++ b/omni/TABLE_COLUMNS.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS\OMNI_ADMIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kayser.dev\omni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86546DE4-3DEC-40B6-A1F9-2C25285DEE78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE643B3-25B3-4308-A825-8D5FC7490370}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfirmacionPacking" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="DocumentoSalida" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
   <si>
     <t>IdAlmacen</t>
   </si>
@@ -190,6 +190,108 @@
   </si>
   <si>
     <t>PEDIDO_OMNI</t>
+  </si>
+  <si>
+    <t>FechaExpiracion</t>
+  </si>
+  <si>
+    <t>AlmacenDestino</t>
+  </si>
+  <si>
+    <t>EnviarPor</t>
+  </si>
+  <si>
+    <t>IdKit</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>FechaAnulacion</t>
+  </si>
+  <si>
+    <t>AnuladoPor</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>FechaCreacionERP</t>
+  </si>
+  <si>
+    <t>FechaModificacionERP</t>
+  </si>
+  <si>
+    <t>FechaLecturaWMS</t>
+  </si>
+  <si>
+    <t>CODIGO DE TIENDA CON GUION Y ABREVIATURA</t>
+  </si>
+  <si>
+    <t>CODIGO DE TIENDA SIN GUION (AGREGAR ESTO EN EL CLIENTE)</t>
+  </si>
+  <si>
+    <t>DETALLE DE DESPACHO (podria indicar el carrier o algo asi a futuro)</t>
+  </si>
+  <si>
+    <t>podria indicar una prioridad a futuro</t>
+  </si>
+  <si>
+    <t>alguna informacion que detalle el pedido</t>
+  </si>
+  <si>
+    <t>FECHA DE CREACION DEL PEDIDO</t>
+  </si>
+  <si>
+    <t>FECHA DE EMISION DEL PEDIDO ( DEBE SER IGUAL A LA DE LA CREACION)</t>
+  </si>
+  <si>
+    <t>[doc_fecha]</t>
+  </si>
+  <si>
+    <t>[codigo_pedido]</t>
+  </si>
+  <si>
+    <t>[cli_rut]</t>
+  </si>
+  <si>
+    <t>[fecha_limite]</t>
+  </si>
+  <si>
+    <t>[tie_cod1]</t>
+  </si>
+  <si>
+    <t>[tie_cod2]</t>
+  </si>
+  <si>
+    <t>SANTIAGO / REGIONES ('S' o 'R')</t>
+  </si>
+  <si>
+    <t>[localidad]</t>
+  </si>
+  <si>
+    <t>[doc_numero]</t>
+  </si>
+  <si>
+    <t>LA USAREMOS PARA GUARDAR EL NUMERO DE DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -229,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +362,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,11 +409,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +461,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +819,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +827,7 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" customWidth="1"/>
   </cols>
@@ -1098,13 +1242,950 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="54" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="15" max="15" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2">
+        <v>8</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/omni/TABLE_COLUMNS.xlsx
+++ b/omni/TABLE_COLUMNS.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kayser.dev\omni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE643B3-25B3-4308-A825-8D5FC7490370}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfirmacionPacking" sheetId="1" r:id="rId1"/>
     <sheet name="DocumentoSalida" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="DetalleSalida" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="98">
   <si>
     <t>IdAlmacen</t>
   </si>
@@ -292,12 +291,36 @@
   </si>
   <si>
     <t>LA USAREMOS PARA GUARDAR EL NUMERO DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t>IdArticulo</t>
+  </si>
+  <si>
+    <t>NroLinea</t>
+  </si>
+  <si>
+    <t>si por algun motivo, se anula el pedido, hay que colocar esto</t>
+  </si>
+  <si>
+    <t>C' = Creada, despues el WMS cambiara el estado cuando se traspase</t>
+  </si>
+  <si>
+    <t>[sku_codigo]</t>
+  </si>
+  <si>
+    <t>es el numero de linea o posicion de la boleta (usaremos un contador para esto)</t>
+  </si>
+  <si>
+    <t>[numero_linea]</t>
+  </si>
+  <si>
+    <t>[sku_cantidad]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +501,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,23 +601,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -623,23 +636,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,10 +811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
@@ -1241,11 +1237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,8 +2054,12 @@
         <v>23</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -2075,7 +2075,9 @@
         <v>23</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2092,7 +2094,9 @@
         <v>23</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2109,7 +2113,9 @@
         <v>23</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2126,8 +2132,12 @@
         <v>22</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -2143,7 +2153,9 @@
         <v>22</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2160,7 +2172,9 @@
         <v>23</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2177,7 +2191,9 @@
         <v>23</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G28" s="13"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
@@ -2190,13 +2206,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="18.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="68.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/omni/TABLE_COLUMNS.xlsx
+++ b/omni/TABLE_COLUMNS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfirmacionPacking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>IdAlmacen</t>
   </si>
@@ -1238,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,16 +1249,16 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="11.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="15" max="15" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1280,29 +1280,8 @@
       <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1322,27 +1301,17 @@
       <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1362,27 +1331,17 @@
       <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1402,25 +1361,17 @@
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1440,27 +1391,17 @@
       <c r="G5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -1482,27 +1423,17 @@
       <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1522,27 +1453,17 @@
       <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1562,25 +1483,17 @@
       <c r="G8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -1600,25 +1513,17 @@
       <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
@@ -1638,25 +1543,17 @@
       <c r="G10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2">
-        <v>8</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -1676,25 +1573,17 @@
       <c r="G11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>20</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1714,25 +1603,17 @@
       <c r="G12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>20</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1752,25 +1633,17 @@
       <c r="G13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>50</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
@@ -1790,27 +1663,17 @@
       <c r="G14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>59</v>
       </c>
@@ -1828,25 +1691,17 @@
         <v>51</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="I15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>100</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>60</v>
       </c>
@@ -1864,27 +1719,17 @@
         <v>0</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="2">
-        <v>8</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>62</v>
       </c>
@@ -1904,27 +1749,17 @@
       <c r="G17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>10</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>64</v>
       </c>
@@ -1944,27 +1779,17 @@
       <c r="G18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
@@ -1984,25 +1809,17 @@
       <c r="G19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="2">
-        <v>8</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>65</v>
       </c>
@@ -2022,25 +1839,17 @@
       <c r="G20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2">
-        <v>8</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
@@ -2060,8 +1869,17 @@
       <c r="G21" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>67</v>
       </c>
@@ -2079,8 +1897,17 @@
         <v>51</v>
       </c>
       <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -2098,8 +1925,17 @@
         <v>51</v>
       </c>
       <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
@@ -2117,8 +1953,17 @@
         <v>51</v>
       </c>
       <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
@@ -2138,8 +1983,17 @@
       <c r="G25" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
@@ -2157,8 +2011,17 @@
         <v>51</v>
       </c>
       <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>71</v>
       </c>
@@ -2176,8 +2039,17 @@
         <v>51</v>
       </c>
       <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>72</v>
       </c>
@@ -2195,6 +2067,15 @@
         <v>51</v>
       </c>
       <c r="G28" s="13"/>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="18"/>
@@ -2209,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/omni/TABLE_COLUMNS.xlsx
+++ b/omni/TABLE_COLUMNS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfirmacionPacking" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="DetalleSalida" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -321,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +350,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="22" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2090,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
